--- a/Extra Clase/Modelado de dominio/Modelo enriquecido/Modelo_Enriquecido_ExtraClase.xlsx
+++ b/Extra Clase/Modelado de dominio/Modelo enriquecido/Modelo_Enriquecido_ExtraClase.xlsx
@@ -8,27 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\DOO\Proyecto-Documentacion\Extra Clase\Modelado de dominio\Modelo enriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF89564-AC6F-4032-A915-312C3C680280}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCB1B94-7A72-48A5-81EB-307E71FAA463}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" firstSheet="1" activeTab="1" xr2:uid="{6EE69970-202F-4A01-98E0-735742FBEC48}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" firstSheet="18" activeTab="2" xr2:uid="{6EE69970-202F-4A01-98E0-735742FBEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Modelo de Dominio" sheetId="3" r:id="rId2"/>
     <sheet name="Objetos del dominio" sheetId="2" r:id="rId3"/>
-    <sheet name="Mensaje" sheetId="15" r:id="rId4"/>
-    <sheet name="Contrato" sheetId="16" r:id="rId5"/>
-    <sheet name="Categoria EmpleoDatos Simulados" sheetId="17" r:id="rId6"/>
-    <sheet name="Categoria Empleo" sheetId="13" r:id="rId7"/>
-    <sheet name="Calificacion" sheetId="7" r:id="rId8"/>
-    <sheet name="Comentario" sheetId="10" r:id="rId9"/>
-    <sheet name="Empleador" sheetId="12" r:id="rId10"/>
-    <sheet name="Empleado" sheetId="4" r:id="rId11"/>
-    <sheet name="Mensaje Datos Simulados" sheetId="22" r:id="rId12"/>
-    <sheet name="Comentario Datos Simulado" sheetId="21" r:id="rId13"/>
-    <sheet name="Calificacion Datos Simulados" sheetId="19" r:id="rId14"/>
-    <sheet name="Empleador Datos Simulados" sheetId="18" r:id="rId15"/>
-    <sheet name="Empleado Datos Simulados" sheetId="5" r:id="rId16"/>
+    <sheet name="Respuesta" sheetId="23" r:id="rId4"/>
+    <sheet name="Pregunta" sheetId="15" r:id="rId5"/>
+    <sheet name="Tipo Identificacion" sheetId="27" r:id="rId6"/>
+    <sheet name="Identificacion" sheetId="26" r:id="rId7"/>
+    <sheet name="Contrato" sheetId="16" r:id="rId8"/>
+    <sheet name="Servicio Datos Simulados" sheetId="17" r:id="rId9"/>
+    <sheet name="Servicio" sheetId="13" r:id="rId10"/>
+    <sheet name="Tipo Subservicio" sheetId="24" r:id="rId11"/>
+    <sheet name="Tipo Servicio" sheetId="25" r:id="rId12"/>
+    <sheet name="Calificacion" sheetId="7" r:id="rId13"/>
+    <sheet name="Comentario" sheetId="10" r:id="rId14"/>
+    <sheet name="Cliente" sheetId="12" r:id="rId15"/>
+    <sheet name="Prestador Servicios" sheetId="4" r:id="rId16"/>
+    <sheet name="Pregunta Datos Simulados" sheetId="22" r:id="rId17"/>
+    <sheet name="Comentario Datos Simulado" sheetId="21" r:id="rId18"/>
+    <sheet name="Calificacion Datos Simulados" sheetId="19" r:id="rId19"/>
+    <sheet name="Cliente Datos Simulados" sheetId="18" r:id="rId20"/>
+    <sheet name="Prestador Servicios DtSimulados" sheetId="5" r:id="rId21"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="196">
   <si>
     <t>Tipo de Dato</t>
   </si>
@@ -171,30 +176,15 @@
     <t>Datos simulados</t>
   </si>
   <si>
-    <t>Contrato</t>
-  </si>
-  <si>
     <t>Calificacion</t>
   </si>
   <si>
-    <t>Categoria Empleo</t>
-  </si>
-  <si>
     <t>Atributo que representa el identificador de una calificacion.</t>
   </si>
   <si>
     <t>No es posible tener un tipo de calificacion con el mismo nombre.</t>
   </si>
   <si>
-    <t>Atributo que representa el identificador de un perfil de empleado, asegurandose de que sea unico.</t>
-  </si>
-  <si>
-    <t>Atributo que representa el nombre de un perfil de empleado determinado.</t>
-  </si>
-  <si>
-    <t>Atributo que representa en detalle adicional que se deba dar al respecto a un perfil de empleado determinado.</t>
-  </si>
-  <si>
     <t>No es posible tener un perfil de empleado con el mismo nombre</t>
   </si>
   <si>
@@ -207,27 +197,6 @@
     <t>Atributo que representa la cantidad de puntuacion de una calificacion.</t>
   </si>
   <si>
-    <t>Atributo que representa el identificador de un perfil de empleador, asegurandose de que sea unico.</t>
-  </si>
-  <si>
-    <t>Atributo que representa el nombre de un perfil de empleador determinado.</t>
-  </si>
-  <si>
-    <t>Atributo que representa en detalle adicional que se deba dar al respecto a un perfil de empleador determinado.</t>
-  </si>
-  <si>
-    <t>Atributo que representa el identificador de una categoria de empleo.</t>
-  </si>
-  <si>
-    <t>Atributo que representa el nombre de una categoria de empleo.</t>
-  </si>
-  <si>
-    <t>Atributo que representa en detalle adicional que se deba dar al respecto a una categoria de empleo.</t>
-  </si>
-  <si>
-    <t>No es posible tener una misma categoria de empleo con el mismo nombre.</t>
-  </si>
-  <si>
     <t>No es posible tener una  reseña con el mismo nombre.</t>
   </si>
   <si>
@@ -261,18 +230,9 @@
     <t>Hola, mi nombre es Julio Torres; soy de medellin y tengo mas de 10 años de experiencia trabajando como maestro albañil.</t>
   </si>
   <si>
-    <t>Mensaje</t>
-  </si>
-  <si>
     <t>Combinaciones Unicas</t>
   </si>
   <si>
-    <t>Categoria Empleo[]</t>
-  </si>
-  <si>
-    <t>Atributo que representa la categoria o categorias de empleo a la que esta asociado un perfil empleado.</t>
-  </si>
-  <si>
     <t>[Construccion, Reparacion]</t>
   </si>
   <si>
@@ -282,30 +242,12 @@
     <t>Empleador</t>
   </si>
   <si>
-    <t>Entidad que representa un Empleado, el cual corresponde que desempeña un empleado.</t>
-  </si>
-  <si>
     <t>Comentario</t>
   </si>
   <si>
-    <t>Entidad que representa una reseña, lo cual corresponde a un comentario que es realizado por un  empleado o empleador, hacia un empleador o empleado.</t>
-  </si>
-  <si>
     <t>Combinaciones unicas</t>
   </si>
   <si>
-    <t>Atributo que representa el identificador de un mensaje.</t>
-  </si>
-  <si>
-    <t>Atributo que representa el contenido que se deba dar al respecto a un mensaje.</t>
-  </si>
-  <si>
-    <t>Atributo que representa el empleado al que esta asociado un mensaje.</t>
-  </si>
-  <si>
-    <t>Atributo que representa el empleador al que esta asociado un mensaje.</t>
-  </si>
-  <si>
     <t>Construccion</t>
   </si>
   <si>
@@ -321,12 +263,6 @@
     <t xml:space="preserve">Combinacion Unica </t>
   </si>
   <si>
-    <t>Atributo que representa el empleado que esta asociado con la calificacion determinada.</t>
-  </si>
-  <si>
-    <t>Atributo que representa el empleador que esta asociado con la calificacion determinada.</t>
-  </si>
-  <si>
     <t>Hernan Mauricio Gomez</t>
   </si>
   <si>
@@ -369,24 +305,9 @@
     <t>Oficio que representa a el empleo relacionado con servicios del hogar, como lo son lavado de casa, preparacion de alimentos, cuidado de niños, etc.</t>
   </si>
   <si>
-    <t>Entidad que representa un mensaje, lo cual corresponde a el medio en el cual se comunican.</t>
-  </si>
-  <si>
-    <t>Entidad que representa una categoria de empleo, lo cual corresponde a el tipo de empleo en que se desempeña un empleado.</t>
-  </si>
-  <si>
-    <t>Entidad que representa un contraro, lo cual corresponde a la accion que verifica que un perfil empleado ha sido contratado por un empleador.</t>
-  </si>
-  <si>
-    <t>Entidad que representa un empleador, el cual corresponde al perfil que desempeña un empleador.</t>
-  </si>
-  <si>
     <t>684c08f7-cb0f-4e4b-a8bf-2c57eb5474fa</t>
   </si>
   <si>
-    <t xml:space="preserve">Julio Torres </t>
-  </si>
-  <si>
     <t>-El valor va desde 0 hasta 5.</t>
   </si>
   <si>
@@ -417,15 +338,9 @@
     <t>Hola, Buen dia.</t>
   </si>
   <si>
-    <t>No es posible tener un empleado con el mismo DNI</t>
-  </si>
-  <si>
     <t>Direccion</t>
   </si>
   <si>
-    <t>Atributo que representa el numero de identificacion (DNI) de una persona.</t>
-  </si>
-  <si>
     <t>Fecha Finalizar</t>
   </si>
   <si>
@@ -438,20 +353,293 @@
     <t>Identificacion</t>
   </si>
   <si>
-    <t>Atributo que representa el numero de identificacion de un empleador determnado</t>
-  </si>
-  <si>
-    <t>Atributo que representa el tipo de identificacion que pertenece a un empleador.</t>
-  </si>
-  <si>
     <t>identificacion</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Prestador Servicio</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+  <si>
+    <t>Pregunta</t>
+  </si>
+  <si>
+    <t>Respuesta</t>
+  </si>
+  <si>
+    <t>Tipo Subservicio</t>
+  </si>
+  <si>
+    <t>Tipo Servicio</t>
+  </si>
+  <si>
+    <t>Entidad que representa un servicio, lo cual corresponde a el servicio que presta o desempeña un determinado prestador de servicios.</t>
+  </si>
+  <si>
+    <t>Entidad que representa un prestador de servicios, el cual corresponde al perfil que desempeña un prestador de servicio. Un prestador de servicios es aquel que vende, presta un servicio o servicios determinados a un cliente.</t>
+  </si>
+  <si>
+    <t>Servicio[]</t>
+  </si>
+  <si>
+    <t>Atributo que representa la identificacion que posee una determinada persona.</t>
+  </si>
+  <si>
+    <t>No es posible tener un empleado con la misma identificacion</t>
+  </si>
+  <si>
+    <t>Entidad que representa un cliente, el cual corresponde al perfil que desempeña un cliente que es aquel que uso o consume un determinado servicio de un prestador de servicios.</t>
+  </si>
+  <si>
+    <t>Entidad que representa una reseña, lo cual corresponde a un comentario que es realizado por un   o empleador, hacia un empleador o empleado.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de un servicio.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el nombre de un servicio.</t>
+  </si>
+  <si>
+    <t>Atributo que representa en detalle adicional que se deba dar al respecto a un servicio.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el tipo de subservicio al que corresponde un servicio determinado.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el servicio que esta relacionado con la calificacion</t>
+  </si>
+  <si>
+    <t>Atributo que representa el cliente que esta asociado con la calificacion determinada.</t>
+  </si>
+  <si>
+    <t>Servicios</t>
+  </si>
+  <si>
+    <t>Entidad que representa un tipo de subservicio, lo cual corresponde a un tipo de subseservicio que se puede derivar de un tipo de servicio determinado.</t>
+  </si>
+  <si>
+    <t>Entidad que representa una respuesta dada por parte de un prestador de servicios a una pregunta determinada de un cliente.</t>
+  </si>
+  <si>
+    <t>Entidad que representa un tipo de servicio, lo cual corresponde al tipo de servicio al que pertenece un tipo de subservicio y por consecuente un servicio determinado.</t>
+  </si>
+  <si>
+    <t>Entidad que representa una pregunta, lo que podria ser una duda o un mensaje en especifico acerca del servicio que el prestador de servicios usa.</t>
+  </si>
+  <si>
+    <t>Entidad que representa una identificacion, lo que corresponde a la identificacion que un prestador de servicios y un cliente deben poseer.</t>
+  </si>
+  <si>
+    <t>Entidad que representa un tipo de identificacion, lo cual corresponde al tipo de identificacion al que pertenece una identificacion determinada.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el tipo de identificacion que pertenece a un cliente.</t>
+  </si>
+  <si>
+    <t>Atributo que representa la identificacion que posee un cliente determinado.</t>
+  </si>
+  <si>
+    <t>Atributo que representa en detalle adicional que se deba dar al respecto a un perfil de cliente determinado.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el nombre de un perfil de cliente determinado.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de un perfil de cliente, asegurandose de que sea unico.</t>
+  </si>
+  <si>
+    <t>Tipo Identificacion</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de un prestador de servicios, asegurandose de que sea unico.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el nombre de un prestador de servicios determinado.</t>
+  </si>
+  <si>
+    <t>Atributo que representa en detalle adicional que se deba dar al respecto a un perfil de prestador de servicios determinado.</t>
+  </si>
+  <si>
+    <t>Atributo que representa los servicios o servicios que realiza un prestador de servicios determinado.</t>
+  </si>
+  <si>
+    <t>Prestador Servicios</t>
+  </si>
+  <si>
+    <t>Atributo que representa el cliente con el que esta relacionado una pregunta.</t>
+  </si>
+  <si>
+    <t>Respuesta[]</t>
+  </si>
+  <si>
+    <t>Atributo que representa las respuesta a las que esta relacionado una pregunta.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el contenido que se deba dar al respecto a una pregunta.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de una pregunta.</t>
+  </si>
+  <si>
+    <t>Atributo que representa la direccion de residencia pertenciente a un prestador de servicios.</t>
+  </si>
+  <si>
+    <t>Atributo que representa la direccion de residencia de un cliente determinado.</t>
+  </si>
+  <si>
+    <t>Fecha nacimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formato norma ISO 8601 </t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Atributo que representa lafecha de nacimiento de un cliente.</t>
+  </si>
+  <si>
+    <t>Atributo que representa la edad de un cliente.</t>
+  </si>
+  <si>
+    <t>No es posible tener un cliente con la misma identificacion</t>
+  </si>
+  <si>
+    <t>No es posible tener un cliente con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Pregunta[]</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de una respuesta.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el contenido que se deba dar al respecto a una respuesta.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el servicio al que esta asociado una pregunta.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el prestador de servicios con el que esta relacionado una o varias respuestas.</t>
+  </si>
+  <si>
+    <t>No es posible tener un mismo tipo de subservicio con el mismo nombre.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de un tipo de subservicio.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el nombre de un tipo de subservicio.</t>
+  </si>
+  <si>
+    <t>Atributo que representa en detalle adicional que se deba dar al respecto a un tipo de subservicio.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el tipo de servicio al que corresponde un subservicio determinado.</t>
+  </si>
+  <si>
+    <t>No es posible tener un mismo servicio con el mismo nombre.</t>
+  </si>
+  <si>
+    <t>No es posible tener un mismo tipo de servicio con el mismo nombre.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de un tipo de servicio.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el nombre de un tipo de servicio.</t>
+  </si>
+  <si>
+    <t>Atributo que representa en detalle adicional que se deba dar al respecto a un tipo de servicio.</t>
+  </si>
+  <si>
+    <t>Atributo que indica si el tipo de servicio esta activo o no. Lo que dice si este puede ser usado o no.</t>
+  </si>
+  <si>
+    <t>Atributo que indica si un tipo de subservicio esta activo o no. Lo que representa si se este se puede usar o no.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de una identificacion.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el nombre de una identificacion.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el tipo de identificacion a la que esta asociada una identificacion.</t>
+  </si>
+  <si>
+    <t>No es posible tener un misma identifacion con el mismo numero.</t>
+  </si>
+  <si>
+    <t>Apellidos</t>
+  </si>
+  <si>
+    <t>Fecha de nacimiento</t>
+  </si>
+  <si>
+    <t>Formato norma ISO 8601</t>
+  </si>
+  <si>
+    <t>Atributo que representa la fecha de nacimiento asociada con la persona a la que pertenece la determinada identificacion.</t>
+  </si>
+  <si>
+    <t>Lugar de nacimiento</t>
+  </si>
+  <si>
+    <t>Fecha de expedicion</t>
+  </si>
+  <si>
+    <t>Lugar de expedicion</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Atributo que representa el tipo de sexo al que pertenece una persona asociada a una identificacion.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el lugar donde se expidio la identificacion determinada.</t>
+  </si>
+  <si>
+    <t>Numero de identificacion</t>
+  </si>
+  <si>
+    <t>Atributo que representa el numero de identificacion a la que esta asociada una identificacion.</t>
+  </si>
+  <si>
+    <t>Atributo que representa la fecha de expedicion de una identificacion.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el lugar de nacimiento asociado con la persona a la que pertenece la determinada identificacion.</t>
+  </si>
+  <si>
+    <t>Atributo que representa los apellidos al que representa una identificacion.</t>
+  </si>
+  <si>
+    <t>Atributo que indica si el tipo de identificacion esta activo o no. Lo que dice si este puede ser usado o no.</t>
+  </si>
+  <si>
+    <t>Atributo que representa en detalle adicional que se deba dar al respecto a un tipo de identificacion.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el nombre de un tipo de identificacion.</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de un tipo de identificacion.</t>
+  </si>
+  <si>
+    <t>No es posible tener un mismo tipo de identificacion con el nombre.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,6 +689,13 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -654,7 +849,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -713,9 +908,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -783,6 +975,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1004,22 +1214,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>31229</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>31230</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>343524</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76084</xdr:rowOff>
+      <xdr:colOff>524161</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B53CE4E-FF45-4502-B005-1FCC4025FF0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7413B6B0-A2B2-4B39-A3EE-27857567F8D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1035,8 +1245,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31229" y="31230"/>
-          <a:ext cx="11789139" cy="6415674"/>
+          <a:off x="0" y="1"/>
+          <a:ext cx="11954161" cy="9429750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1416,12 +1626,1208 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE7D9BC-C60A-4015-8593-76365E4831CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F088EDE6-E941-4849-AD42-ECB480A48364}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="10"/>
+    <col min="6" max="6" width="11.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="10"/>
+    <col min="8" max="8" width="30.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="50.140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="47.85546875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="10"/>
+    <col min="13" max="13" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="10"/>
+    <col min="15" max="15" width="21.28515625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="60.42578125" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="str">
+        <f>'Objetos del dominio'!$A$1&amp;":"</f>
+        <v>Objeto de Dominio:</v>
+      </c>
+      <c r="B2" s="39" t="str">
+        <f>'Objetos del dominio'!$A$7</f>
+        <v>Servicio</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+    </row>
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="str">
+        <f>'Objetos del dominio'!$B$1&amp;":"</f>
+        <v>Descripción:</v>
+      </c>
+      <c r="B3" s="39" t="str">
+        <f>'Objetos del dominio'!$B$7</f>
+        <v>Entidad que representa un servicio, lo cual corresponde a el servicio que presta o desempeña un determinado prestador de servicios.</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <v>36</v>
+      </c>
+      <c r="D6" s="14">
+        <v>36</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>50</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+    </row>
+    <row r="14" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="18" t="str">
+        <f>$A$7</f>
+        <v>Nombre</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{E34AE6B5-3CE7-4365-8BF9-FD4772C96C0F}"/>
+    <hyperlink ref="C15" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{155B99CF-035F-44A0-BA7B-645DF8055F75}"/>
+    <hyperlink ref="A4" location="'Presupuesto Datos Simulados'!A1" display="Datos simulados" xr:uid="{06745236-6C44-4744-B497-DEFFCDFC051C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AAC781EA-D461-4E9D-9735-E23E1DBA3BD4}">
+          <x14:formula1>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E93382CC-1922-4B30-A70E-ECAB3CCF6174}">
+          <x14:formula1>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E74EDD-E27C-4FDB-9CE8-38050BFEBAF7}">
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="10"/>
+    <col min="6" max="6" width="11.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="10"/>
+    <col min="8" max="8" width="30.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="50.140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="47.85546875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="10"/>
+    <col min="13" max="13" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="10"/>
+    <col min="15" max="15" width="21.28515625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="60.42578125" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="str">
+        <f>'Objetos del dominio'!$A$1&amp;":"</f>
+        <v>Objeto de Dominio:</v>
+      </c>
+      <c r="B2" s="39" t="str">
+        <f>'Objetos del dominio'!$A$8</f>
+        <v>Tipo Subservicio</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+    </row>
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="str">
+        <f>'Objetos del dominio'!$B$1&amp;":"</f>
+        <v>Descripción:</v>
+      </c>
+      <c r="B3" s="39" t="str">
+        <f>'Objetos del dominio'!$B$8</f>
+        <v>Entidad que representa un tipo de subservicio, lo cual corresponde a un tipo de subseservicio que se puede derivar de un tipo de servicio determinado.</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <v>36</v>
+      </c>
+      <c r="D6" s="14">
+        <v>36</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>50</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+    </row>
+    <row r="14" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="18" t="str">
+        <f>$A$7</f>
+        <v>Nombre</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A13:C13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{27B78B53-B27C-4E70-A0EF-235C0177917E}"/>
+    <hyperlink ref="C15" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{C83CDCFD-A9D0-4269-B7C7-761ACAE17CB9}"/>
+    <hyperlink ref="A4" location="'Presupuesto Datos Simulados'!A1" display="Datos simulados" xr:uid="{6B9D380E-517B-4C3E-925E-C77CD626F382}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8642991F-6B98-440A-8D42-FB8BDBE40877}">
+          <x14:formula1>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B8 B10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B73F95CD-3C0B-46F3-A98B-6FAC3FDE708A}">
+          <x14:formula1>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C23C6C-A0EF-4F4F-B558-1A44CF2D74F4}">
+  <dimension ref="A1:Q15"/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" sqref="A1:P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="10"/>
+    <col min="6" max="6" width="11.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="10"/>
+    <col min="8" max="8" width="30.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="50.140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="47.85546875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="10"/>
+    <col min="13" max="13" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="10"/>
+    <col min="15" max="15" width="21.28515625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="60.42578125" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="str">
+        <f>'Objetos del dominio'!$A$1&amp;":"</f>
+        <v>Objeto de Dominio:</v>
+      </c>
+      <c r="B2" s="39" t="str">
+        <f>'Objetos del dominio'!$A$9</f>
+        <v>Tipo Servicio</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+    </row>
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="str">
+        <f>'Objetos del dominio'!$B$1&amp;":"</f>
+        <v>Descripción:</v>
+      </c>
+      <c r="B3" s="39" t="str">
+        <f>'Objetos del dominio'!$B$9</f>
+        <v>Entidad que representa un tipo de servicio, lo cual corresponde al tipo de servicio al que pertenece un tipo de subservicio y por consecuente un servicio determinado.</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <v>36</v>
+      </c>
+      <c r="D6" s="14">
+        <v>36</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>50</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+    </row>
+    <row r="13" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="18" t="str">
+        <f>$A$7</f>
+        <v>Nombre</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A12:C12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{A1A26F75-0E6B-4F95-B5E7-0878FD9E342D}"/>
+    <hyperlink ref="C14" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{A4FED12B-009A-46CF-BEBF-406ACB7E85FB}"/>
+    <hyperlink ref="A4" location="'Presupuesto Datos Simulados'!A1" display="Datos simulados" xr:uid="{DFDB6AD1-0C77-4C31-8CAB-0A18B01DE703}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5352781A-5CE3-4BD6-B9F6-1FCE03AF9383}">
+          <x14:formula1>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B8 B9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6DCF5359-01C4-45D9-AB96-745D7F061343}">
+          <x14:formula1>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6BF95E-DE39-44F9-9DD4-249AD6037D95}">
+  <dimension ref="A1:Q15"/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,75 +2852,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="40" t="str">
-        <f>'Objetos del dominio'!$A$3</f>
-        <v>Empleador</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
+      <c r="B2" s="39" t="str">
+        <f>'Objetos del dominio'!$A$4</f>
+        <v>Calificacion</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="40" t="str">
-        <f>'Objetos del dominio'!$B$3</f>
-        <v>Entidad que representa un empleador, el cual corresponde al perfil que desempeña un empleador.</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
+      <c r="B3" s="39" t="str">
+        <f>'Objetos del dominio'!B4</f>
+        <v>Entidad que representa una calificacion, lo cual corresponde a el nivel de puntuacion que le es asignado un perfil a otro.</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1607,7 +3013,388 @@
         <v>8</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>55</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>5</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>5</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="11" spans="1:17" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+    </row>
+    <row r="13" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="18" t="str">
+        <f>$A$7</f>
+        <v>Puntuacion</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{D646EF7A-8477-465E-AECF-D5C124032B0F}"/>
+    <hyperlink ref="C14" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{FFBF06E6-FA28-40CC-A0DF-DE154162012B}"/>
+    <hyperlink ref="A4" location="'Calificacion Datos Simulados'!A1" display="Datos simulados" xr:uid="{356BBBC6-F6FE-4ECC-9EB8-B5122B550589}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BA9820F8-28FF-4849-8FE9-B3075CB0FB98}">
+          <x14:formula1>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7A85B0E1-FABE-4992-AC62-511976184061}">
+          <x14:formula1>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637C60D8-7ED8-49D0-A003-E9EDAB99D35D}">
+  <dimension ref="A1:Q17"/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="10"/>
+    <col min="6" max="6" width="11.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="10"/>
+    <col min="8" max="8" width="30.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="50.140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="47.85546875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="10"/>
+    <col min="13" max="13" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="10"/>
+    <col min="15" max="15" width="21.28515625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="61.7109375" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="str">
+        <f>'Objetos del dominio'!$A$1&amp;":"</f>
+        <v>Objeto de Dominio:</v>
+      </c>
+      <c r="B2" s="39" t="str">
+        <f>'Objetos del dominio'!$A$5</f>
+        <v>Comentario</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+    </row>
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="str">
+        <f>'Objetos del dominio'!$B$1&amp;":"</f>
+        <v>Descripción:</v>
+      </c>
+      <c r="B3" s="39" t="str">
+        <f>'Objetos del dominio'!$B$5</f>
+        <v>Entidad que representa una reseña, lo cual corresponde a un comentario que es realizado por un   o empleador, hacia un empleador o empleado.</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <v>36</v>
+      </c>
+      <c r="D6" s="14">
+        <v>36</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1649,7 +3436,7 @@
         <v>9</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="9"/>
     </row>
@@ -1692,16 +3479,472 @@
         <v>9</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>130</v>
+        <v>88</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+    </row>
+    <row r="16" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="18" t="str">
+        <f>$A$7</f>
+        <v>Nombre</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{B14F401B-17C3-42E1-B918-AA3C761854C4}"/>
+    <hyperlink ref="C17" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{AE7664BF-D549-40FB-9037-96CCF2B98062}"/>
+    <hyperlink ref="A4" location="'Presupuesto Datos Simulados'!A1" display="Datos simulados" xr:uid="{2FA3F71F-31BD-45FD-ACBB-554A6E62DE67}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{17D819BA-5863-44E0-AB7A-8F04C096B44E}">
+          <x14:formula1>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C948B406-D7F1-47F1-BB4A-DDA85B2ACB4B}">
+          <x14:formula1>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE7D9BC-C60A-4015-8593-76365E4831CF}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="10"/>
+    <col min="6" max="6" width="11.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="10"/>
+    <col min="8" max="8" width="30.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="50.140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="47.85546875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="10"/>
+    <col min="13" max="13" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="10"/>
+    <col min="15" max="15" width="21.28515625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="61.7109375" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="str">
+        <f>'Objetos del dominio'!$A$1&amp;":"</f>
+        <v>Objeto de Dominio:</v>
+      </c>
+      <c r="B2" s="39" t="str">
+        <f>'Objetos del dominio'!$A$3</f>
+        <v>Cliente</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+    </row>
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="str">
+        <f>'Objetos del dominio'!$B$1&amp;":"</f>
+        <v>Descripción:</v>
+      </c>
+      <c r="B3" s="39" t="str">
+        <f>'Objetos del dominio'!$B$3</f>
+        <v>Entidad que representa un cliente, el cual corresponde al perfil que desempeña un cliente que es aquel que uso o consume un determinado servicio de un prestador de servicios.</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <v>36</v>
+      </c>
+      <c r="D6" s="14">
+        <v>36</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>50</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="C9" s="14">
         <v>1</v>
@@ -1715,9 +3958,7 @@
       <c r="H9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="I9" s="15"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14" t="s">
         <v>9</v>
@@ -1729,22 +3970,22 @@
         <v>8</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O9" s="14" t="s">
         <v>9</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q9" s="9"/>
     </row>
     <row r="10" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C10" s="14">
         <v>1</v>
@@ -1758,9 +3999,7 @@
       <c r="H10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="I10" s="15"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14" t="s">
         <v>9</v>
@@ -1778,57 +4017,186 @@
         <v>9</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-    </row>
-    <row r="14" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+    <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14">
+        <v>100</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+    </row>
+    <row r="18" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="18" t="str">
+      <c r="B19" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="18" t="str">
         <f>$A$7</f>
         <v>Nombre</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="32" t="str">
+        <f>$A$7</f>
+        <v>Nombre</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A17:C17"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{8380DAF3-32A4-4D7F-89F3-6F616A15E447}"/>
-    <hyperlink ref="C15" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{B6C83FF2-DFF5-452D-9328-F0DC605F2322}"/>
-    <hyperlink ref="A4" location="'Tipo Rubro Datos Simulados'!A1" display="Datos simulados" xr:uid="{F0402C3A-8501-45E6-BC07-1C6F204AEA2D}"/>
+    <hyperlink ref="C19" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{B6C83FF2-DFF5-452D-9328-F0DC605F2322}"/>
+    <hyperlink ref="A4" location="'Cliente Datos Simulados'!A1" display="Datos simulados" xr:uid="{A613E07D-655D-4822-B176-B38D386F306D}"/>
+    <hyperlink ref="C20" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{39212252-7318-4911-80C6-2E91C8F917A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1839,13 +4207,13 @@
           <x14:formula1>
             <xm:f>Valores!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:O10</xm:sqref>
+          <xm:sqref>K6:O13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CC2666FD-C47E-453A-95CA-99DCBDA01C68}">
           <x14:formula1>
             <xm:f>Valores!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B6:B10</xm:sqref>
+          <xm:sqref>B6:B8 B11:B13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1853,13 +4221,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE51E2DA-11A9-4464-A5CD-C773B3EEB075}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1884,72 +4252,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="40" t="str">
+      <c r="B2" s="39" t="str">
         <f>'Objetos del dominio'!$A$2</f>
-        <v>Empleado</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
+        <v>Prestador Servicio</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="40" t="str">
+      <c r="B3" s="39" t="str">
         <f>'Objetos del dominio'!$B$2</f>
-        <v>Entidad que representa un Empleado, el cual corresponde que desempeña un empleado.</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
+        <v>Entidad que representa un prestador de servicios, el cual corresponde al perfil que desempeña un prestador de servicio. Un prestador de servicios es aquel que vende, presta un servicio o servicios determinados a un cliente.</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -2045,7 +4413,7 @@
         <v>8</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2087,7 +4455,7 @@
         <v>9</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="9"/>
     </row>
@@ -2130,16 +4498,16 @@
         <v>9</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -2165,16 +4533,16 @@
         <v>9</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="Q9" s="9"/>
     </row>
     <row r="10" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -2194,22 +4562,22 @@
         <v>8</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>9</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="Q10" s="9"/>
     </row>
     <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -2229,60 +4597,94 @@
         <v>8</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O11" s="14" t="s">
         <v>9</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="Q11" s="9"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-    </row>
-    <row r="15" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+    <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+    </row>
+    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="18" t="str">
+      <c r="B18" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="18" t="str">
         <f>$A$7</f>
         <v>Nombre</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="33" t="str">
+      <c r="B19" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="32" t="str">
         <f>$A$7</f>
         <v>Nombre</v>
       </c>
@@ -2292,13 +4694,13 @@
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{63DB7971-3258-4EC6-A151-1CE1B53F690F}"/>
-    <hyperlink ref="C16" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{D1B84CED-5656-450D-A396-5A4F930AF371}"/>
+    <hyperlink ref="C18" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{D1B84CED-5656-450D-A396-5A4F930AF371}"/>
     <hyperlink ref="A4" location="'Tipo Rubro Datos Simulados'!A1" display="Datos simulados" xr:uid="{47B2A0C4-D125-4E13-AFBC-4CB446849DEE}"/>
-    <hyperlink ref="C17" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{E080DF49-E233-465B-9BDB-580DCCDCCC49}"/>
+    <hyperlink ref="C19" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{E080DF49-E233-465B-9BDB-580DCCDCCC49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2309,13 +4711,13 @@
           <x14:formula1>
             <xm:f>Valores!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B6:B8 B10:B11</xm:sqref>
+          <xm:sqref>B6:B8 B12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A3A16F1F-B8AB-4823-ACFD-FB51DBB5B488}">
           <x14:formula1>
             <xm:f>Valores!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:O11</xm:sqref>
+          <xm:sqref>K6:O12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2323,12 +4725,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802FA1F8-3A98-4B90-8F75-BCDEE3DCB682}">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2342,53 +4744,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
-        <f>Empleado!$A$6</f>
+        <f>'Prestador Servicios'!$A$6</f>
         <v>Identificador</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="32" t="str">
+      <c r="B2" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="31" t="str">
         <f>Comentario!$A$10</f>
         <v>Empleado</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>124</v>
+      <c r="A3" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>96</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -2411,12 +4813,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828A747D-C7A9-4076-BE4C-301D721D0084}">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2430,65 +4832,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
-        <f>Empleado!$A$6</f>
+        <f>'Prestador Servicios'!$A$6</f>
         <v>Identificador</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="32" t="str">
+      <c r="C2" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="31" t="str">
         <f>Comentario!$A$10</f>
         <v>Empleado</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>123</v>
+      <c r="A3" s="27" t="s">
+        <v>95</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="31">
+        <v>92</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="30">
         <v>44798</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -2512,12 +4914,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167DA4A0-0429-46F2-A27B-11270341739D}">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2529,52 +4931,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="str">
-        <f>Empleado!$A$6</f>
-        <v>Identificador</v>
+      <c r="A2" s="31" t="s">
+        <v>102</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>79</v>
+        <v>48</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>113</v>
+      <c r="A3" s="27" t="s">
+        <v>86</v>
       </c>
       <c r="B3" s="7">
         <v>4</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>114</v>
-      </c>
+      <c r="C3" s="27"/>
       <c r="D3" s="7" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -2587,8 +4986,7 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" location="'Tipo Rubro'!A6" display="'Tipo Rubro'!A6" xr:uid="{1CB1FB08-EB64-4C3F-A7CB-3889D03D0243}"/>
-    <hyperlink ref="B2" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{ECD9E18E-F68A-451A-A97D-206105CC6B66}"/>
+    <hyperlink ref="B2" location="Calificacion!A1" display="Puntuacion" xr:uid="{ECD9E18E-F68A-451A-A97D-206105CC6B66}"/>
     <hyperlink ref="C2" location="'Tipo Rubro'!A8" display="'Tipo Rubro'!A8" xr:uid="{3A39D2A5-73A1-4030-9FEA-C1CB31F44A92}"/>
     <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{07D3615B-C5FC-4927-8018-0BB47BEC7763}"/>
   </hyperlinks>
@@ -2596,12 +4994,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED245ED7-D35C-472E-8F69-175F76F9003C}">
+  <dimension ref="A1:R48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScale="79" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16"/>
+    </row>
+    <row r="48" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R48"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD68EA96-08EF-477E-8623-4C010BEABFA5}">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2613,49 +5042,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
-        <f>Empleado!$A$6</f>
+        <f>'Prestador Servicios'!$A$6</f>
         <v>Identificador</v>
       </c>
       <c r="B2" s="8" t="str">
-        <f>Empleado!$A$7</f>
+        <f>'Prestador Servicios'!$A$7</f>
         <v>Nombre</v>
       </c>
-      <c r="C2" s="24" t="str">
-        <f>Empleado!$A$8</f>
+      <c r="C2" s="23" t="str">
+        <f>'Prestador Servicios'!$A$8</f>
         <v>Descripción</v>
       </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>96</v>
+      <c r="A3" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>97</v>
+        <v>72</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -2678,12 +5107,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA96604-4B13-4B12-98BE-8AE02AB9A202}">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2695,54 +5124,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
-        <f>Empleado!$A$6</f>
+        <f>'Prestador Servicios'!$A$6</f>
         <v>Identificador</v>
       </c>
       <c r="B2" s="8" t="str">
-        <f>Empleado!$A$7</f>
+        <f>'Prestador Servicios'!$A$7</f>
         <v>Nombre</v>
       </c>
-      <c r="C2" s="24" t="str">
-        <f>Empleado!$A$8</f>
+      <c r="C2" s="23" t="str">
+        <f>'Prestador Servicios'!$A$8</f>
         <v>Descripción</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>45</v>
+      <c r="D2" s="24" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>90</v>
+      <c r="A3" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -2765,43 +5194,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED245ED7-D35C-472E-8F69-175F76F9003C}">
-  <dimension ref="A1:R48"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H11"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I16"/>
-    </row>
-    <row r="48" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R48"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A284BF0-0165-41C9-9049-BA0135A5A147}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2818,83 +5216,119 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>78</v>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>112</v>
+      <c r="A3" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>111</v>
+      <c r="B4" s="22" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>82</v>
+      <c r="A5" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="23" t="s">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>109</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="'Tipo Rubro'!A1" display="Tipo Rubro" xr:uid="{E4B69573-E670-4D7C-BD4B-44D47D1A3F5D}"/>
-    <hyperlink ref="A5" location="Presupuesto!A1" display="Presupuesto" xr:uid="{19382135-7A64-42A9-8DE0-CFB024795B8B}"/>
-    <hyperlink ref="A6" location="Reseña!A1" display="Reseña" xr:uid="{3D4EF3CF-1B22-4A4B-A5F9-10EB1FA27FCD}"/>
-    <hyperlink ref="A3" location="'Perfil de Empleador'!A1" display="Perfil de empleador" xr:uid="{43A8E1C9-A171-403E-9D3A-127E81DF0606}"/>
-    <hyperlink ref="A7" location="'Categoria Empleo'!A1" display="Categoria Empleo" xr:uid="{49702007-0B28-4037-A28D-CD34FA6324FA}"/>
-    <hyperlink ref="A4" location="Contrato!A1" display="Contrato" xr:uid="{EDDF616E-5991-480B-9E04-402D50D9983B}"/>
-    <hyperlink ref="A8" location="Chat!A1" display="Chat" xr:uid="{AD606119-0FEE-4705-9380-14D896345A0B}"/>
+    <hyperlink ref="A2" location="'Prestador Servicios'!A1" display="Prestador Servicio" xr:uid="{E4B69573-E670-4D7C-BD4B-44D47D1A3F5D}"/>
+    <hyperlink ref="A4" location="Calificacion!A1" display="Calificacion" xr:uid="{19382135-7A64-42A9-8DE0-CFB024795B8B}"/>
+    <hyperlink ref="A5" location="Comentario!A1" display="Comentario" xr:uid="{3D4EF3CF-1B22-4A4B-A5F9-10EB1FA27FCD}"/>
+    <hyperlink ref="A12" location="Pregunta!A1" display="Pregunta" xr:uid="{AD606119-0FEE-4705-9380-14D896345A0B}"/>
+    <hyperlink ref="A7" location="Servicio!A1" display="Servicio" xr:uid="{C196D2F5-8685-4053-948D-C5DFA54E1631}"/>
+    <hyperlink ref="A3" location="Cliente!A1" display="Cliente" xr:uid="{F1E2E218-0914-4DD3-B2CD-5ED50083A43F}"/>
+    <hyperlink ref="A13" location="Respuesta!A1" display="Respuesta" xr:uid="{29D85820-0A1F-4C98-B54E-58E213248BCC}"/>
+    <hyperlink ref="A9" location="'Tipo Servicio'!A1" display="Tipo Servicio" xr:uid="{9FA4C817-00BD-4F89-A786-4609D6A98C34}"/>
+    <hyperlink ref="A8" location="'Tipo Subservicio'!A1" display="Tipo Subservicio" xr:uid="{A714AD46-B362-40B3-A2A8-2B81942C6343}"/>
+    <hyperlink ref="A10" location="Identificacion!A1" display="Identificacion" xr:uid="{0B11181C-AEB5-4E4D-B8A1-3D6CBE3F5A52}"/>
+    <hyperlink ref="A11" location="'Tipo Identificacion'!A1" display="Tipo de identificacion" xr:uid="{E997A781-2363-43A1-B2D6-41842B0BC9FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C36CBC-B819-4452-AB1A-023A637CFB68}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE491719-8760-40A4-880A-F19EBC0CE868}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="91" workbookViewId="0">
+    <sheetView zoomScale="91" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P7" sqref="A7:P7"/>
+      <selection pane="bottomLeft" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2919,72 +5353,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="40" t="str">
-        <f>'Objetos del dominio'!$A$8</f>
-        <v>Mensaje</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
+      <c r="B2" s="39" t="str">
+        <f>'Objetos del dominio'!$A$13</f>
+        <v>Respuesta</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="40" t="str">
-        <f>'Objetos del dominio'!$B$8</f>
-        <v>Entidad que representa un mensaje, lo cual corresponde a el medio en el cual se comunican.</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
+      <c r="B3" s="39" t="str">
+        <f>'Objetos del dominio'!$B$13</f>
+        <v>Entidad que representa una respuesta dada por parte de un prestador de servicios a una pregunta determinada de un cliente.</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
@@ -3080,7 +5514,7 @@
         <v>8</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3122,16 +5556,16 @@
         <v>9</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -3157,16 +5591,16 @@
         <v>9</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -3192,59 +5626,55 @@
         <v>9</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="Q9" s="9"/>
     </row>
     <row r="10" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="7"/>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="7"/>
-    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
+      <c r="A12" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
     </row>
     <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A12:C12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{3840343C-3618-4406-BBC5-07DE3B9D0542}"/>
-    <hyperlink ref="A4" location="'Presupuesto Datos Simulados'!A1" display="Datos simulados" xr:uid="{6037E0D2-5AA9-40B7-AF9A-0A4D850B1CD9}"/>
+    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{80E227E1-A9BB-480F-86C2-01E91B0B7DBB}"/>
+    <hyperlink ref="A4" location="'Pregunta Datos Simulados'!A1" display="Datos simulados" xr:uid="{4CBAC0C3-C50D-4C4A-9AB7-9EEB05AE9377}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A46A5A60-EEF1-40A2-97E5-C83818C1B09C}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE8248A0-E771-4935-9C5F-F0D29BD05D3A}">
           <x14:formula1>
             <xm:f>Valores!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>B6:B7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{40922BD0-587A-4BF5-91D4-1D3C237DD5FC}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6106BE3C-7A22-4D0A-BD64-DD1AFBB0C216}">
           <x14:formula1>
             <xm:f>Valores!$B$2:$B$3</xm:f>
           </x14:formula1>
@@ -3257,11 +5687,1440 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C36CBC-B819-4452-AB1A-023A637CFB68}">
+  <dimension ref="A1:Q15"/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="10"/>
+    <col min="6" max="6" width="11.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="10"/>
+    <col min="8" max="8" width="30.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="50.140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="47.85546875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="10"/>
+    <col min="13" max="13" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="10"/>
+    <col min="15" max="15" width="21.28515625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="61.7109375" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="str">
+        <f>'Objetos del dominio'!$A$1&amp;":"</f>
+        <v>Objeto de Dominio:</v>
+      </c>
+      <c r="B2" s="39" t="str">
+        <f>'Objetos del dominio'!$A$12</f>
+        <v>Pregunta</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+    </row>
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="str">
+        <f>'Objetos del dominio'!$B$1&amp;":"</f>
+        <v>Descripción:</v>
+      </c>
+      <c r="B3" s="39" t="str">
+        <f>'Objetos del dominio'!$B$12</f>
+        <v>Entidad que representa una pregunta, lo que podria ser una duda o un mensaje en especifico acerca del servicio que el prestador de servicios usa.</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <v>36</v>
+      </c>
+      <c r="D6" s="14">
+        <v>36</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+    </row>
+    <row r="14" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A13:C13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{3840343C-3618-4406-BBC5-07DE3B9D0542}"/>
+    <hyperlink ref="A4" location="'Pregunta Datos Simulados'!A1" display="Datos simulados" xr:uid="{6037E0D2-5AA9-40B7-AF9A-0A4D850B1CD9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A46A5A60-EEF1-40A2-97E5-C83818C1B09C}">
+          <x14:formula1>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{40922BD0-587A-4BF5-91D4-1D3C237DD5FC}">
+          <x14:formula1>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515EAB84-74DE-40F3-A19F-A2F1DEC782EF}">
+  <dimension ref="A1:Q15"/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="10"/>
+    <col min="6" max="6" width="11.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="10"/>
+    <col min="8" max="8" width="30.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="50.140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="47.85546875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="10"/>
+    <col min="13" max="13" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="10"/>
+    <col min="15" max="15" width="21.28515625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="60.42578125" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="str">
+        <f>'Objetos del dominio'!$A$1&amp;":"</f>
+        <v>Objeto de Dominio:</v>
+      </c>
+      <c r="B2" s="39" t="str">
+        <f>'Objetos del dominio'!$A$11</f>
+        <v>Tipo Identificacion</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+    </row>
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="str">
+        <f>'Objetos del dominio'!$B$1&amp;":"</f>
+        <v>Descripción:</v>
+      </c>
+      <c r="B3" s="39" t="str">
+        <f>'Objetos del dominio'!$B$11</f>
+        <v>Entidad que representa un tipo de identificacion, lo cual corresponde al tipo de identificacion al que pertenece una identificacion determinada.</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <v>36</v>
+      </c>
+      <c r="D6" s="14">
+        <v>36</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>50</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+    </row>
+    <row r="13" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="18" t="str">
+        <f>$A$7</f>
+        <v>Nombre</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A12:C12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{8F24CA63-B9F9-4730-821E-2E3CE5C3139F}"/>
+    <hyperlink ref="C14" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{ABC4A484-C5AF-4011-93A5-6C0D6AF983DC}"/>
+    <hyperlink ref="A4" location="'Presupuesto Datos Simulados'!A1" display="Datos simulados" xr:uid="{B396534D-A781-4BC3-B011-1567D84C1AE1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3D9423EF-AF72-4E78-8E99-930E125DABA4}">
+          <x14:formula1>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CB54E375-7FB2-4948-93DE-48EAF5D912B8}">
+          <x14:formula1>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F139CC-DEFA-42C0-92BE-B7985B845303}">
+  <dimension ref="A1:Q21"/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="10"/>
+    <col min="6" max="6" width="11.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="10"/>
+    <col min="8" max="8" width="30.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="50.140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="47.85546875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="10"/>
+    <col min="13" max="13" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="10"/>
+    <col min="15" max="15" width="21.28515625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="60.42578125" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="str">
+        <f>'Objetos del dominio'!$A$1&amp;":"</f>
+        <v>Objeto de Dominio:</v>
+      </c>
+      <c r="B2" s="39" t="str">
+        <f>'Objetos del dominio'!$A$7</f>
+        <v>Servicio</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+    </row>
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="str">
+        <f>'Objetos del dominio'!$B$1&amp;":"</f>
+        <v>Descripción:</v>
+      </c>
+      <c r="B3" s="39" t="str">
+        <f>'Objetos del dominio'!$B$7</f>
+        <v>Entidad que representa un servicio, lo cual corresponde a el servicio que presta o desempeña un determinado prestador de servicios.</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <v>36</v>
+      </c>
+      <c r="D6" s="14">
+        <v>36</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>50</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>50</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14">
+        <v>50</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14">
+        <v>50</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14">
+        <v>100</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14">
+        <v>100</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14">
+        <v>10</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="14">
+        <v>50</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+    </row>
+    <row r="19" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="18" t="str">
+        <f>$A$7</f>
+        <v>Nombre</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="18" t="str">
+        <f>$A$7</f>
+        <v>Nombre</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A18:C18"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{D74AF22F-B110-44EE-952D-6D9A1BF7403B}"/>
+    <hyperlink ref="C20" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{BD164691-AB4D-4985-8B7F-434ECF23DF5A}"/>
+    <hyperlink ref="A4" location="'Presupuesto Datos Simulados'!A1" display="Datos simulados" xr:uid="{94B9EFD3-A138-4A95-ABC8-1E938841004C}"/>
+    <hyperlink ref="C21" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{BFDA37A0-38E7-4A91-A62D-17D237FA2D50}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0C17461F-A0D1-481D-BCA8-EEFC20EB9379}">
+          <x14:formula1>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B14</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6155AD79-682A-4707-A85E-7BB4D942BD7C}">
+          <x14:formula1>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O15</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFBC7DB1-F70F-44EE-A5F6-49066BFFFCE5}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D24" sqref="D24:D26"/>
     </sheetView>
   </sheetViews>
@@ -3287,72 +7146,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="40" t="str">
-        <f>'Objetos del dominio'!$A$4</f>
-        <v>Contrato</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
+      <c r="B2" s="39" t="e">
+        <f>'Objetos del dominio'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="40" t="str">
-        <f>'Objetos del dominio'!$B$4</f>
-        <v>Entidad que representa un contraro, lo cual corresponde a la accion que verifica que un perfil empleado ha sido contratado por un empleador.</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
+      <c r="B3" s="39" t="e">
+        <f>'Objetos del dominio'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
@@ -3448,7 +7307,7 @@
         <v>8</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3490,7 +7349,7 @@
         <v>9</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="9"/>
     </row>
@@ -3533,13 +7392,13 @@
         <v>9</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>5</v>
@@ -3550,7 +7409,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="20" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="14"/>
@@ -3570,13 +7429,13 @@
         <v>9</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="9"/>
     </row>
     <row r="10" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>5</v>
@@ -3587,7 +7446,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="20" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="14"/>
@@ -3607,7 +7466,7 @@
         <v>9</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="Q10" s="9"/>
     </row>
@@ -3642,16 +7501,16 @@
         <v>9</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="9"/>
     </row>
     <row r="12" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -3677,16 +7536,16 @@
         <v>9</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -3712,26 +7571,26 @@
         <v>9</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
+      <c r="A16" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
     </row>
     <row r="17" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3740,7 +7599,7 @@
         <v>39</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C18" s="18" t="str">
         <f>$A$7</f>
@@ -3782,12 +7641,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7E7277-D934-44A9-B80A-B756CBFA8259}">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3799,61 +7658,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
-        <f>Empleado!$A$6</f>
+        <f>'Prestador Servicios'!$A$6</f>
         <v>Identificador</v>
       </c>
       <c r="B2" s="8" t="str">
-        <f>Empleado!$A$7</f>
+        <f>'Prestador Servicios'!$A$7</f>
         <v>Nombre</v>
       </c>
-      <c r="C2" s="24" t="str">
-        <f>Empleado!$A$8</f>
+      <c r="C2" s="23" t="str">
+        <f>'Prestador Servicios'!$A$8</f>
         <v>Descripción</v>
       </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="24" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>89</v>
+      <c r="A3" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>105</v>
+        <v>67</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>108</v>
+        <v>84</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3868,1192 +7729,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F088EDE6-E941-4849-AD42-ECB480A48364}">
-  <dimension ref="A1:Q16"/>
-  <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.5703125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="10"/>
-    <col min="6" max="6" width="11.85546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="10"/>
-    <col min="8" max="8" width="30.28515625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="50.140625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="47.85546875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="10"/>
-    <col min="13" max="13" width="14.85546875" style="10" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="10"/>
-    <col min="15" max="15" width="21.28515625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="60.42578125" style="10" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="str">
-        <f>'Objetos del dominio'!$A$1&amp;":"</f>
-        <v>Objeto de Dominio:</v>
-      </c>
-      <c r="B2" s="40" t="str">
-        <f>'Objetos del dominio'!$A$7</f>
-        <v>Categoria Empleo</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-    </row>
-    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="str">
-        <f>'Objetos del dominio'!$B$1&amp;":"</f>
-        <v>Descripción:</v>
-      </c>
-      <c r="B3" s="40" t="str">
-        <f>'Objetos del dominio'!$B$7</f>
-        <v>Entidad que representa una categoria de empleo, lo cual corresponde a el tipo de empleo en que se desempeña un empleado.</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="14">
-        <v>36</v>
-      </c>
-      <c r="D6" s="14">
-        <v>36</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-      <c r="D7" s="14">
-        <v>50</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="P7" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q7" s="9"/>
-    </row>
-    <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-      <c r="D8" s="14">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q8" s="9"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="18" t="str">
-        <f>$A$7</f>
-        <v>Nombre</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{E34AE6B5-3CE7-4365-8BF9-FD4772C96C0F}"/>
-    <hyperlink ref="C13" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{155B99CF-035F-44A0-BA7B-645DF8055F75}"/>
-    <hyperlink ref="A4" location="'Presupuesto Datos Simulados'!A1" display="Datos simulados" xr:uid="{06745236-6C44-4744-B497-DEFFCDFC051C}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AAC781EA-D461-4E9D-9735-E23E1DBA3BD4}">
-          <x14:formula1>
-            <xm:f>Valores!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>K6:O8</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E93382CC-1922-4B30-A70E-ECAB3CCF6174}">
-          <x14:formula1>
-            <xm:f>Valores!$A$2:$A$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6:B8</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6BF95E-DE39-44F9-9DD4-249AD6037D95}">
-  <dimension ref="A1:Q15"/>
-  <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.5703125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="10"/>
-    <col min="6" max="6" width="11.85546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="10"/>
-    <col min="8" max="8" width="30.28515625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="50.140625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="47.85546875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="10"/>
-    <col min="13" max="13" width="14.85546875" style="10" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="10"/>
-    <col min="15" max="15" width="21.28515625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="61.7109375" style="10" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="str">
-        <f>'Objetos del dominio'!$A$1&amp;":"</f>
-        <v>Objeto de Dominio:</v>
-      </c>
-      <c r="B2" s="40" t="str">
-        <f>'Objetos del dominio'!$A$5</f>
-        <v>Calificacion</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-    </row>
-    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="str">
-        <f>'Objetos del dominio'!$B$1&amp;":"</f>
-        <v>Descripción:</v>
-      </c>
-      <c r="B3" s="40" t="str">
-        <f>'Objetos del dominio'!B5</f>
-        <v>Entidad que representa una calificacion, lo cual corresponde a el nivel de puntuacion que le es asignado un perfil a otro.</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="14">
-        <v>36</v>
-      </c>
-      <c r="D6" s="14">
-        <v>36</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-      <c r="D7" s="14">
-        <v>5</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="P7" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q7" s="9"/>
-    </row>
-    <row r="8" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-      <c r="D8" s="14">
-        <v>5</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q8" s="9"/>
-    </row>
-    <row r="9" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q9" s="9"/>
-    </row>
-    <row r="11" spans="1:17" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-    </row>
-    <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="18" t="str">
-        <f>$A$7</f>
-        <v>Puntuacion</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{D646EF7A-8477-465E-AECF-D5C124032B0F}"/>
-    <hyperlink ref="C14" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{FFBF06E6-FA28-40CC-A0DF-DE154162012B}"/>
-    <hyperlink ref="A4" location="'Presupuesto Datos Simulados'!A1" display="Datos simulados" xr:uid="{356BBBC6-F6FE-4ECC-9EB8-B5122B550589}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BA9820F8-28FF-4849-8FE9-B3075CB0FB98}">
-          <x14:formula1>
-            <xm:f>Valores!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>K6:O9</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7A85B0E1-FABE-4992-AC62-511976184061}">
-          <x14:formula1>
-            <xm:f>Valores!$A$2:$A$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6:B7</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637C60D8-7ED8-49D0-A003-E9EDAB99D35D}">
-  <dimension ref="A1:Q17"/>
-  <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:P1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.5703125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="10"/>
-    <col min="6" max="6" width="11.85546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="10"/>
-    <col min="8" max="8" width="30.28515625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="50.140625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="47.85546875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="10"/>
-    <col min="13" max="13" width="14.85546875" style="10" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="10"/>
-    <col min="15" max="15" width="21.28515625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="61.7109375" style="10" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="str">
-        <f>'Objetos del dominio'!$A$1&amp;":"</f>
-        <v>Objeto de Dominio:</v>
-      </c>
-      <c r="B2" s="40" t="str">
-        <f>'Objetos del dominio'!$A$6</f>
-        <v>Comentario</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-    </row>
-    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="str">
-        <f>'Objetos del dominio'!$B$1&amp;":"</f>
-        <v>Descripción:</v>
-      </c>
-      <c r="B3" s="40" t="str">
-        <f>'Objetos del dominio'!$B$6</f>
-        <v>Entidad que representa una reseña, lo cual corresponde a un comentario que es realizado por un  empleado o empleador, hacia un empleador o empleado.</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="14">
-        <v>36</v>
-      </c>
-      <c r="D6" s="14">
-        <v>36</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-      <c r="D7" s="14">
-        <v>50</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="P7" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q7" s="9"/>
-    </row>
-    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-      <c r="D8" s="14">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="9"/>
-    </row>
-    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q9" s="9"/>
-    </row>
-    <row r="10" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="P11" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-    </row>
-    <row r="16" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="18" t="str">
-        <f>$A$7</f>
-        <v>Nombre</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos del dominio'!A1" display="Volver al inicio" xr:uid="{B14F401B-17C3-42E1-B918-AA3C761854C4}"/>
-    <hyperlink ref="C17" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{AE7664BF-D549-40FB-9037-96CCF2B98062}"/>
-    <hyperlink ref="A4" location="'Presupuesto Datos Simulados'!A1" display="Datos simulados" xr:uid="{2FA3F71F-31BD-45FD-ACBB-554A6E62DE67}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{17D819BA-5863-44E0-AB7A-8F04C096B44E}">
-          <x14:formula1>
-            <xm:f>Valores!$A$2:$A$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6:B9</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C948B406-D7F1-47F1-BB4A-DDA85B2ACB4B}">
-          <x14:formula1>
-            <xm:f>Valores!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>K6:O11</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Extra Clase/Modelado de dominio/Modelo enriquecido/Modelo_Enriquecido_ExtraClase.xlsx
+++ b/Extra Clase/Modelado de dominio/Modelo enriquecido/Modelo_Enriquecido_ExtraClase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\DOO\Proyecto-Documentacion\Extra Clase\Modelado de dominio\Modelo enriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCB1B94-7A72-48A5-81EB-307E71FAA463}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08203CF9-94DC-4423-A6BC-525DDEE642B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" firstSheet="18" activeTab="2" xr2:uid="{6EE69970-202F-4A01-98E0-735742FBEC48}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" firstSheet="2" activeTab="6" xr2:uid="{6EE69970-202F-4A01-98E0-735742FBEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" state="hidden" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="197">
   <si>
     <t>Tipo de Dato</t>
   </si>
@@ -633,6 +633,9 @@
   </si>
   <si>
     <t>No es posible tener un mismo tipo de identificacion con el nombre.</t>
+  </si>
+  <si>
+    <t>En caso de que no se registre un estado, este se registrara por defecto como activo.</t>
   </si>
 </sst>
 </file>
@@ -947,6 +950,27 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -956,19 +980,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -977,22 +992,10 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1629,9 +1632,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F088EDE6-E941-4849-AD42-ECB480A48364}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="C1" zoomScale="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,72 +1659,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="39" t="str">
+      <c r="B2" s="38" t="str">
         <f>'Objetos del dominio'!$A$7</f>
         <v>Servicio</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="39" t="str">
+      <c r="B3" s="38" t="str">
         <f>'Objetos del dominio'!$B$7</f>
         <v>Entidad que representa un servicio, lo cual corresponde a el servicio que presta o desempeña un determinado prestador de servicios.</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
@@ -1941,15 +1944,52 @@
       </c>
       <c r="Q9" s="9"/>
     </row>
+    <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q10" s="9"/>
+    </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
     </row>
     <row r="14" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
@@ -1998,13 +2038,13 @@
           <x14:formula1>
             <xm:f>Valores!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:O9</xm:sqref>
+          <xm:sqref>K6:O10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E93382CC-1922-4B30-A70E-ECAB3CCF6174}">
           <x14:formula1>
             <xm:f>Valores!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B6:B8</xm:sqref>
+          <xm:sqref>B6:B8 B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2018,7 +2058,7 @@
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:P1"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2043,72 +2083,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="39" t="str">
+      <c r="B2" s="38" t="str">
         <f>'Objetos del dominio'!$A$8</f>
         <v>Tipo Subservicio</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="39" t="str">
+      <c r="B3" s="38" t="str">
         <f>'Objetos del dominio'!$B$8</f>
         <v>Entidad que representa un tipo de subservicio, lo cual corresponde a un tipo de subseservicio que se puede derivar de un tipo de servicio determinado.</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
@@ -2341,7 +2381,9 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="I10" s="20" t="s">
+        <v>196</v>
+      </c>
       <c r="J10" s="14"/>
       <c r="K10" s="14" t="s">
         <v>9</v>
@@ -2367,11 +2409,11 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
     </row>
     <row r="14" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
@@ -2440,7 +2482,7 @@
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:P1"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2465,72 +2507,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="39" t="str">
+      <c r="B2" s="38" t="str">
         <f>'Objetos del dominio'!$A$9</f>
         <v>Tipo Servicio</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="39" t="str">
+      <c r="B3" s="38" t="str">
         <f>'Objetos del dominio'!$B$9</f>
         <v>Entidad que representa un tipo de servicio, lo cual corresponde al tipo de servicio al que pertenece un tipo de subservicio y por consecuente un servicio determinado.</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
@@ -2728,7 +2770,9 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="15"/>
+      <c r="I9" s="20" t="s">
+        <v>196</v>
+      </c>
       <c r="J9" s="14"/>
       <c r="K9" s="14" t="s">
         <v>9</v>
@@ -2754,11 +2798,11 @@
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
     </row>
     <row r="13" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
@@ -2852,72 +2896,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="39" t="str">
+      <c r="B2" s="38" t="str">
         <f>'Objetos del dominio'!$A$4</f>
         <v>Calificacion</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="39" t="str">
+      <c r="B3" s="38" t="str">
         <f>'Objetos del dominio'!B4</f>
         <v>Entidad que representa una calificacion, lo cual corresponde a el nivel de puntuacion que le es asignado un perfil a otro.</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
@@ -3135,11 +3179,11 @@
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
     </row>
     <row r="13" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
@@ -3233,72 +3277,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="39" t="str">
+      <c r="B2" s="38" t="str">
         <f>'Objetos del dominio'!$A$5</f>
         <v>Comentario</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="39" t="str">
+      <c r="B3" s="38" t="str">
         <f>'Objetos del dominio'!$B$5</f>
         <v>Entidad que representa una reseña, lo cual corresponde a un comentario que es realizado por un   o empleador, hacia un empleador o empleado.</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
@@ -3594,11 +3638,11 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
     </row>
     <row r="16" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
@@ -3663,7 +3707,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -3689,72 +3733,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="39" t="str">
+      <c r="B2" s="38" t="str">
         <f>'Objetos del dominio'!$A$3</f>
         <v>Cliente</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="39" t="str">
+      <c r="B3" s="38" t="str">
         <f>'Objetos del dominio'!$B$3</f>
         <v>Entidad que representa un cliente, el cual corresponde al perfil que desempeña un cliente que es aquel que uso o consume un determinado servicio de un prestador de servicios.</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
@@ -4144,11 +4188,11 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
     </row>
     <row r="18" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
@@ -4226,7 +4270,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
@@ -4252,72 +4296,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="39" t="str">
+      <c r="B2" s="38" t="str">
         <f>'Objetos del dominio'!$A$2</f>
         <v>Prestador Servicio</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="39" t="str">
+      <c r="B3" s="38" t="str">
         <f>'Objetos del dominio'!$B$2</f>
         <v>Entidad que representa un prestador de servicios, el cual corresponde al perfil que desempeña un prestador de servicio. Un prestador de servicios es aquel que vende, presta un servicio o servicios determinados a un cliente.</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -4648,11 +4692,11 @@
     <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
     </row>
     <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
@@ -4744,24 +4788,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
@@ -4832,24 +4876,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
@@ -4931,24 +4975,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -5042,24 +5086,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
@@ -5124,24 +5168,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
@@ -5198,8 +5242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A284BF0-0165-41C9-9049-BA0135A5A147}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5260,7 +5304,7 @@
       <c r="A8" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="35" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5268,7 +5312,7 @@
       <c r="A9" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="35" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5284,7 +5328,7 @@
       <c r="A11" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="36" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5326,7 +5370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE491719-8760-40A4-880A-F19EBC0CE868}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="91" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:P1"/>
     </sheetView>
@@ -5353,72 +5397,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="39" t="str">
+      <c r="B2" s="38" t="str">
         <f>'Objetos del dominio'!$A$13</f>
         <v>Respuesta</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="39" t="str">
+      <c r="B3" s="38" t="str">
         <f>'Objetos del dominio'!$B$13</f>
         <v>Entidad que representa una respuesta dada por parte de un prestador de servicios a una pregunta determinada de un cliente.</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
@@ -5636,11 +5680,11 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
     </row>
     <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
@@ -5717,72 +5761,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="39" t="str">
+      <c r="B2" s="38" t="str">
         <f>'Objetos del dominio'!$A$12</f>
         <v>Pregunta</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="39" t="str">
+      <c r="B3" s="38" t="str">
         <f>'Objetos del dominio'!$B$12</f>
         <v>Entidad que representa una pregunta, lo que podria ser una duda o un mensaje en especifico acerca del servicio que el prestador de servicios usa.</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
@@ -6042,11 +6086,11 @@
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
     </row>
     <row r="14" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
@@ -6123,72 +6167,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="39" t="str">
+      <c r="B2" s="38" t="str">
         <f>'Objetos del dominio'!$A$11</f>
         <v>Tipo Identificacion</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="39" t="str">
+      <c r="B3" s="38" t="str">
         <f>'Objetos del dominio'!$B$11</f>
         <v>Entidad que representa un tipo de identificacion, lo cual corresponde al tipo de identificacion al que pertenece una identificacion determinada.</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
@@ -6412,11 +6456,11 @@
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
     </row>
     <row r="13" spans="1:17" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
@@ -6483,8 +6527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F139CC-DEFA-42C0-92BE-B7985B845303}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
@@ -6510,72 +6554,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="39" t="str">
+      <c r="B2" s="38" t="str">
         <f>'Objetos del dominio'!$A$7</f>
         <v>Servicio</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="39" t="str">
+      <c r="B3" s="38" t="str">
         <f>'Objetos del dominio'!$B$7</f>
         <v>Entidad que representa un servicio, lo cual corresponde a el servicio que presta o desempeña un determinado prestador de servicios.</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
@@ -7038,11 +7082,11 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
     </row>
     <row r="19" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
@@ -7146,72 +7190,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Objetos del dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="39" t="e">
+      <c r="B2" s="38" t="e">
         <f>'Objetos del dominio'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>'Objetos del dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="39" t="e">
+      <c r="B3" s="38" t="e">
         <f>'Objetos del dominio'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
@@ -7577,11 +7621,11 @@
     <row r="14" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
     </row>
     <row r="17" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
@@ -7658,24 +7702,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
